--- a/bin/123456789 от 29.05.2021 г.xlsx
+++ b/bin/123456789 от 29.05.2021 г.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24026"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6254D9C1-DB12-4C30-9732-CE9D2999DFE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D031B898-288F-43CF-A860-26AEA849D5B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1155" yWindow="13995" windowWidth="19890" windowHeight="17040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1137,11 +1137,11 @@
         <v>8</v>
       </c>
       <c r="G6" s="11">
-        <v>0</v>
+        <v>100.00007233339863</v>
       </c>
       <c r="H6" s="37">
         <f>G8-G7-G6</f>
-        <v>0</v>
+        <v>8.3240786756277885E-4</v>
       </c>
       <c r="I6" s="5"/>
     </row>
@@ -1159,7 +1159,7 @@
         <v>9</v>
       </c>
       <c r="G7" s="13">
-        <v>0</v>
+        <v>199.99898805073701</v>
       </c>
       <c r="H7" s="38"/>
       <c r="I7" s="5"/>
@@ -1178,7 +1178,7 @@
         <v>10</v>
       </c>
       <c r="G8" s="15">
-        <v>0</v>
+        <v>299.99989279200321</v>
       </c>
       <c r="H8" s="39"/>
       <c r="I8" s="5"/>
@@ -1202,11 +1202,11 @@
         <v>8</v>
       </c>
       <c r="G9" s="17">
-        <v>0</v>
+        <v>100.00049596561021</v>
       </c>
       <c r="H9" s="37">
         <f t="shared" ref="H9" si="0">G11-G10-G9</f>
-        <v>0</v>
+        <v>2.3037807480648098E-3</v>
       </c>
       <c r="I9" s="5"/>
     </row>
@@ -1224,7 +1224,7 @@
         <v>9</v>
       </c>
       <c r="G10" s="13">
-        <v>0</v>
+        <v>199.99976244906293</v>
       </c>
       <c r="H10" s="38"/>
       <c r="I10" s="5"/>
@@ -1243,7 +1243,7 @@
         <v>10</v>
       </c>
       <c r="G11" s="19">
-        <v>0</v>
+        <v>300.00256219542121</v>
       </c>
       <c r="H11" s="39"/>
       <c r="I11" s="5"/>
@@ -1267,11 +1267,11 @@
         <v>8</v>
       </c>
       <c r="G12" s="11">
-        <v>0</v>
+        <v>99.999822637799383</v>
       </c>
       <c r="H12" s="37">
         <f t="shared" ref="H12" si="1">G14-G13-G12</f>
-        <v>0</v>
+        <v>2.4231052725269819E-3</v>
       </c>
       <c r="I12" s="5"/>
     </row>
@@ -1289,7 +1289,7 @@
         <v>9</v>
       </c>
       <c r="G13" s="13">
-        <v>0</v>
+        <v>199.99800952781931</v>
       </c>
       <c r="H13" s="38"/>
       <c r="I13" s="5"/>
@@ -1308,7 +1308,7 @@
         <v>10</v>
       </c>
       <c r="G14" s="15">
-        <v>0</v>
+        <v>300.00025527089122</v>
       </c>
       <c r="H14" s="39"/>
       <c r="I14" s="5"/>
@@ -1332,11 +1332,11 @@
         <v>8</v>
       </c>
       <c r="G15" s="17">
-        <v>0</v>
+        <v>99.999899993731177</v>
       </c>
       <c r="H15" s="37">
         <f>G17-G16-G15</f>
-        <v>0</v>
+        <v>-1.5068500328112577E-3</v>
       </c>
       <c r="I15" s="5"/>
     </row>
@@ -1354,7 +1354,7 @@
         <v>9</v>
       </c>
       <c r="G16" s="13">
-        <v>0</v>
+        <v>200.0006335205756</v>
       </c>
       <c r="H16" s="38"/>
       <c r="I16" s="5"/>
@@ -1373,7 +1373,7 @@
         <v>10</v>
       </c>
       <c r="G17" s="19">
-        <v>0</v>
+        <v>299.99902666427397</v>
       </c>
       <c r="H17" s="39"/>
       <c r="I17" s="5"/>
@@ -1397,11 +1397,11 @@
         <v>8</v>
       </c>
       <c r="G18" s="11">
-        <v>0</v>
+        <v>99.999504385035252</v>
       </c>
       <c r="H18" s="37">
         <f t="shared" ref="H18" si="4">G20-G19-G18</f>
-        <v>0</v>
+        <v>4.5072480948249449E-4</v>
       </c>
       <c r="I18" s="5"/>
     </row>
@@ -1419,7 +1419,7 @@
         <v>9</v>
       </c>
       <c r="G19" s="13">
-        <v>0</v>
+        <v>200.00046268601898</v>
       </c>
       <c r="H19" s="38"/>
       <c r="I19" s="5"/>
@@ -1438,7 +1438,7 @@
         <v>10</v>
       </c>
       <c r="G20" s="15">
-        <v>0</v>
+        <v>300.00041779586371</v>
       </c>
       <c r="H20" s="39"/>
       <c r="I20" s="5"/>
@@ -1462,11 +1462,11 @@
         <v>8</v>
       </c>
       <c r="G21" s="17">
-        <v>0</v>
+        <v>100.00094812744443</v>
       </c>
       <c r="H21" s="37">
         <f t="shared" ref="H21" si="6">G23-G22-G21</f>
-        <v>0</v>
+        <v>7.6884944714095127E-4</v>
       </c>
       <c r="I21" s="5"/>
     </row>
@@ -1484,7 +1484,7 @@
         <v>9</v>
       </c>
       <c r="G22" s="13">
-        <v>0</v>
+        <v>199.99836662613146</v>
       </c>
       <c r="H22" s="38"/>
       <c r="I22" s="5"/>
@@ -1503,7 +1503,7 @@
         <v>10</v>
       </c>
       <c r="G23" s="19">
-        <v>0</v>
+        <v>300.00008360302303</v>
       </c>
       <c r="H23" s="39"/>
       <c r="I23" s="5"/>
@@ -1527,11 +1527,11 @@
         <v>8</v>
       </c>
       <c r="G24" s="11">
-        <v>0</v>
+        <v>99.999934717684482</v>
       </c>
       <c r="H24" s="37">
         <f t="shared" ref="H24" si="8">G26-G25-G24</f>
-        <v>0</v>
+        <v>4.1989451429458313E-4</v>
       </c>
       <c r="I24" s="5"/>
     </row>
@@ -1549,7 +1549,7 @@
         <v>9</v>
       </c>
       <c r="G25" s="13">
-        <v>0</v>
+        <v>199.99868055602948</v>
       </c>
       <c r="H25" s="38"/>
       <c r="I25" s="5"/>
@@ -1568,7 +1568,7 @@
         <v>10</v>
       </c>
       <c r="G26" s="15">
-        <v>0</v>
+        <v>299.99903516822826</v>
       </c>
       <c r="H26" s="39"/>
       <c r="I26" s="5"/>
@@ -1592,11 +1592,11 @@
         <v>8</v>
       </c>
       <c r="G27" s="17">
-        <v>0</v>
+        <v>99.998753324743333</v>
       </c>
       <c r="H27" s="37">
         <f t="shared" ref="H27" si="10">G29-G28-G27</f>
-        <v>0</v>
+        <v>2.8816430177869279E-4</v>
       </c>
       <c r="I27" s="5"/>
     </row>
@@ -1614,7 +1614,7 @@
         <v>9</v>
       </c>
       <c r="G28" s="13">
-        <v>0</v>
+        <v>200.00091704338951</v>
       </c>
       <c r="H28" s="38"/>
       <c r="I28" s="5"/>
@@ -1633,7 +1633,7 @@
         <v>10</v>
       </c>
       <c r="G29" s="19">
-        <v>0</v>
+        <v>299.99995853243462</v>
       </c>
       <c r="H29" s="39"/>
       <c r="I29" s="5"/>
@@ -1657,11 +1657,11 @@
         <v>8</v>
       </c>
       <c r="G30" s="11">
-        <v>0</v>
+        <v>100.00095833609865</v>
       </c>
       <c r="H30" s="37">
         <f t="shared" ref="H30" si="12">G32-G31-G30</f>
-        <v>0</v>
+        <v>-9.2982871890967544E-4</v>
       </c>
       <c r="I30" s="5"/>
     </row>
@@ -1679,7 +1679,7 @@
         <v>9</v>
       </c>
       <c r="G31" s="13">
-        <v>0</v>
+        <v>199.99977379340993</v>
       </c>
       <c r="H31" s="38"/>
       <c r="I31" s="5"/>
@@ -1698,7 +1698,7 @@
         <v>10</v>
       </c>
       <c r="G32" s="15">
-        <v>0</v>
+        <v>299.99980230078967</v>
       </c>
       <c r="H32" s="39"/>
       <c r="I32" s="5"/>
@@ -1722,11 +1722,11 @@
         <v>8</v>
       </c>
       <c r="G33" s="17">
-        <v>0</v>
+        <v>99.999168978298314</v>
       </c>
       <c r="H33" s="37">
         <f t="shared" ref="H33" si="14">G35-G34-G33</f>
-        <v>0</v>
+        <v>1.5513331780994122E-3</v>
       </c>
       <c r="I33" s="5"/>
     </row>
@@ -1744,7 +1744,7 @@
         <v>9</v>
       </c>
       <c r="G34" s="13">
-        <v>0</v>
+        <v>199.99901882868716</v>
       </c>
       <c r="H34" s="38"/>
       <c r="I34" s="5"/>
@@ -1763,7 +1763,7 @@
         <v>10</v>
       </c>
       <c r="G35" s="19">
-        <v>0</v>
+        <v>299.99973914016357</v>
       </c>
       <c r="H35" s="39"/>
       <c r="I35" s="5"/>
@@ -1787,11 +1787,11 @@
         <v>8</v>
       </c>
       <c r="G36" s="17">
-        <v>0</v>
+        <v>100.00187719271131</v>
       </c>
       <c r="H36" s="37">
         <f t="shared" ref="H36" si="16">G38-G37-G36</f>
-        <v>0</v>
+        <v>-1.6131205468639109E-3</v>
       </c>
       <c r="I36" s="5"/>
     </row>
@@ -1809,7 +1809,7 @@
         <v>9</v>
       </c>
       <c r="G37" s="13">
-        <v>0</v>
+        <v>199.99971251387899</v>
       </c>
       <c r="H37" s="38"/>
       <c r="I37" s="5"/>
@@ -1828,7 +1828,7 @@
         <v>10</v>
       </c>
       <c r="G38" s="19">
-        <v>0</v>
+        <v>299.99997658604343</v>
       </c>
       <c r="H38" s="39"/>
       <c r="I38" s="5"/>
@@ -1852,11 +1852,11 @@
         <v>8</v>
       </c>
       <c r="G39" s="11">
-        <v>0</v>
+        <v>99.99879312188088</v>
       </c>
       <c r="H39" s="37">
         <f t="shared" ref="H39" si="18">G41-G40-G39</f>
-        <v>0</v>
+        <v>1.2768276712904481E-4</v>
       </c>
       <c r="I39" s="5"/>
     </row>
@@ -1874,7 +1874,7 @@
         <v>9</v>
       </c>
       <c r="G40" s="13">
-        <v>0</v>
+        <v>200.0007028988563</v>
       </c>
       <c r="H40" s="38"/>
       <c r="I40" s="5"/>
@@ -1893,7 +1893,7 @@
         <v>10</v>
       </c>
       <c r="G41" s="15">
-        <v>0</v>
+        <v>299.99962370350431</v>
       </c>
       <c r="H41" s="39"/>
       <c r="I41" s="5"/>
@@ -1917,11 +1917,11 @@
         <v>8</v>
       </c>
       <c r="G42" s="17">
-        <v>0</v>
+        <v>99.999189804530118</v>
       </c>
       <c r="H42" s="37">
         <f t="shared" ref="H42" si="20">G44-G43-G42</f>
-        <v>0</v>
+        <v>2.3920160614068209E-3</v>
       </c>
       <c r="I42" s="5"/>
     </row>
@@ -1939,7 +1939,7 @@
         <v>9</v>
       </c>
       <c r="G43" s="13">
-        <v>0</v>
+        <v>199.9991438494439</v>
       </c>
       <c r="H43" s="38"/>
       <c r="I43" s="5"/>
@@ -1958,7 +1958,7 @@
         <v>10</v>
       </c>
       <c r="G44" s="19">
-        <v>0</v>
+        <v>300.00072567003542</v>
       </c>
       <c r="H44" s="39"/>
       <c r="I44" s="5"/>
@@ -1982,11 +1982,11 @@
         <v>8</v>
       </c>
       <c r="G45" s="11">
-        <v>0</v>
+        <v>99.999481258347743</v>
       </c>
       <c r="H45" s="37">
         <f t="shared" ref="H45" si="22">G47-G46-G45</f>
-        <v>0</v>
+        <v>1.792054833003931E-3</v>
       </c>
       <c r="I45" s="5"/>
     </row>
@@ -2004,7 +2004,7 @@
         <v>9</v>
       </c>
       <c r="G46" s="13">
-        <v>0</v>
+        <v>199.99952154203092</v>
       </c>
       <c r="H46" s="38"/>
       <c r="I46" s="5"/>
@@ -2023,7 +2023,7 @@
         <v>10</v>
       </c>
       <c r="G47" s="15">
-        <v>0</v>
+        <v>300.00079485521167</v>
       </c>
       <c r="H47" s="39"/>
       <c r="I47" s="5"/>
@@ -2047,11 +2047,11 @@
         <v>8</v>
       </c>
       <c r="G48" s="17">
-        <v>0</v>
+        <v>100.0015515169127</v>
       </c>
       <c r="H48" s="37">
         <f t="shared" ref="H48" si="24">G50-G49-G48</f>
-        <v>0</v>
+        <v>-5.8307466512985684E-4</v>
       </c>
       <c r="I48" s="5"/>
     </row>
@@ -2069,7 +2069,7 @@
         <v>9</v>
       </c>
       <c r="G49" s="13">
-        <v>0</v>
+        <v>199.9986576433009</v>
       </c>
       <c r="H49" s="38"/>
       <c r="I49" s="5"/>
@@ -2088,7 +2088,7 @@
         <v>10</v>
       </c>
       <c r="G50" s="19">
-        <v>0</v>
+        <v>299.99962608554847</v>
       </c>
       <c r="H50" s="39"/>
       <c r="I50" s="5"/>
@@ -2112,11 +2112,11 @@
         <v>8</v>
       </c>
       <c r="G51" s="11">
-        <v>0</v>
+        <v>100.00029209126413</v>
       </c>
       <c r="H51" s="37">
         <f>G53-G52-G51</f>
-        <v>0</v>
+        <v>-4.1515550498161247E-4</v>
       </c>
       <c r="I51" s="5"/>
     </row>
@@ -2134,7 +2134,7 @@
         <v>9</v>
       </c>
       <c r="G52" s="13">
-        <v>0</v>
+        <v>200.000080214723</v>
       </c>
       <c r="H52" s="38"/>
       <c r="I52" s="5"/>
@@ -2153,7 +2153,7 @@
         <v>10</v>
       </c>
       <c r="G53" s="19">
-        <v>0</v>
+        <v>299.99995715048215</v>
       </c>
       <c r="H53" s="39"/>
       <c r="I53" s="5"/>
@@ -2191,7 +2191,7 @@
         <v>27</v>
       </c>
       <c r="D56" s="43">
-        <v>44345.827928240738</v>
+        <v>44345.858564814815</v>
       </c>
       <c r="E56" s="43"/>
       <c r="F56" s="20"/>
